--- a/数据整理/stocks/A股/上证主板/600383-金地集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600383-金地集团.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4201,4 +4202,1542 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6906</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>57.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1455</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8916</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8013</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7179</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7137</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6927</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5751</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5489</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4785</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>240005</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝多策略增长</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4538</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3139</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2877</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>59.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2317</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2153</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2125</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1958</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009499</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1686</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1657</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>57.35</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009849</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>36.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1330</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1167</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.14</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>57.35</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005445</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华宝价值发现混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010832</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国泰合益混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001264</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银华恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>77.39</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009755</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010833</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰合益混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002327</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>银华恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>77.39</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600383-金地集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600383-金地集团.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5740,4 +5741,2604 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1940</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1289</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6723</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>46.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5468</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1717</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8964</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8204</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8162</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012390</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7794</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7549</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>72.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6875</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011905</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6634</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6053</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5995</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5726</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519690</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>70.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5607</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5404</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>76.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5342</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5092</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>240005</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝多策略增长</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4148</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>76.80</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4012</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3800</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3587</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3115</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2752</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001173</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2601</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2562</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2182</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2153</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2012</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1871</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1685</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000763</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1683</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>67.95</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1243</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005445</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华宝价值发现混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009499</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>28.76</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011906</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>98.08</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>970020</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>50.73</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012391</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>970021</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>50.73</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001264</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>银华恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>58.09</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>60.79</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009755</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>28.76</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002327</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>银华恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>58.09</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>44.22</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>59.55</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>44.22</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>67.95</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>59.55</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>960017</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合H</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>70.49</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600383-金地集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600383-金地集团.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8341,4 +8342,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>67</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>39</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>46</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="n">
+        <v>19.45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600383-金地集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600383-金地集团.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8350,7 +8351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8361,17 +8362,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8381,14 +8402,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>67</v>
-      </c>
-      <c r="D2" t="n">
-        <v>23.06</v>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>228.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.5563</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -8397,14 +8440,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>39</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.51</v>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4789</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -8413,14 +8478,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>46</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16.76</v>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>49.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7643</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -8429,13 +8516,5619 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5400</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>57.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3855</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>42.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2977</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001287</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>45.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.9604</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>48.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.9272</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.8309</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>47.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.7502</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>750001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>40.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5822</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>27.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>59.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.4459</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3881</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3770</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.3132</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>31.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.3062</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006252</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>永赢消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>38.27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.1175</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.1004</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>36.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0655</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>15.54</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0443</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.0010</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.9507</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>16.16</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9454</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8834</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8706</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005711</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>永赢惠添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8000</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7847</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011905</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7551</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>14.65</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7135</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007944</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>永赢乾元三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.7030</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.7004</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>万家精选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6481</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008891</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>安信价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5439</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011203</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5384</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4561</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>240005</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华宝多策略增长</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4516</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4407</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009499</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4406</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4284</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>75.85</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4121</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>72.97</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3990</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>519690</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>20.53</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>67.80</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3901</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3694</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>270008</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发核心精选混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3631</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>13.43</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>70.07</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3532</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006253</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>永赢消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>12.04</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3516</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3422</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012442</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合E</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>27.76</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3342</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009932</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>27.76</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3342</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3186</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006430</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>凯石澜龙头经济定期开放混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>73.53</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2857</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011856</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2731</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2371</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2313</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2221</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007257</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>凯石沣混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>63.99</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2149</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2121</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2064</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>519033</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>海富通国策导向混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1964</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>38.11</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1947</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005587</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>安信比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>76.41</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1927</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1877</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1840</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1743</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001686</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>安信新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1740</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009880</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>安信成长动力一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1707</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1700</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1625</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>10.85</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1486</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1455</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1437</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>工银瑞信国家战略主题股票</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>000763</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>工银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>63.00</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1378</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1352</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>003295</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>南方安裕混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>31.02</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>21.36</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1334</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001185</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>36.12</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1278</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006586</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>南方安裕混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>23.96</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>21.36</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010560</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>永赢稳健增利18个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>21.59</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1025</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>013595</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>永赢稳健增利18个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>21.59</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>天治财富增长混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>67.99</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>51.03</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002036</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>255010</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>国联安稳健混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>69.11</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>005445</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华宝价值发现混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>51.88</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>007243</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>53.87</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>32.33</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>002029</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>36.12</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>95.63</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>001276</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>建信新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>46.25</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>005386</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>银河睿达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>011906</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>70.07</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>673071</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>63.45</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>006652</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>673073</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>009849</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>008892</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>安信价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>011204</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>50.05</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>010373</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>西部利得聚兴一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>009755</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>002182</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>东兴蓝海财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>84.98</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>011857</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>97.07</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>32.33</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>46.25</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>001068</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>华融新锐灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>61.38</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>001687</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>安信新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>010374</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>西部利得聚兴一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>44.28</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>007244</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>53.87</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>007258</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>凯石沣混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>63.99</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>63.00</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>52.14</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>32.33</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>011124</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>44.28</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>005387</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>银河睿达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>960017</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合H</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>67.80</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>52.14</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>148</v>
+      </c>
+      <c r="D2" t="n">
+        <v>67.84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>67</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>39</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>50</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>19.45</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600383-金地集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600383-金地集团.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14027,7 +14028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14038,17 +14039,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -14058,14 +14079,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>148</v>
-      </c>
-      <c r="D2" t="n">
-        <v>67.84</v>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7906</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -14074,14 +14117,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>67</v>
-      </c>
-      <c r="D3" t="n">
-        <v>23.06</v>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7906</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -14090,14 +14155,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>39</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.51</v>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>175.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.7504</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -14106,14 +14193,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>46</v>
-      </c>
-      <c r="D5" t="n">
-        <v>16.76</v>
+          <t>011932</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>63.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.9915</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -14122,13 +14231,9359 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>501208</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>63.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.6123</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012406</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>永赢长远价值混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>54.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.5349</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏回报混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>125.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>44.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.5282</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>960002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏回报混合H</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>125.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>44.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.5282</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>53.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.3722</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>48.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.2973</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010608</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>38.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.2044</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>28.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.0728</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011264</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）X</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.0513</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>166001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.0513</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001881</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.0513</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>25.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>67.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.0082</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17.66</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.6989</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.6806</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.6713</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>040005</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安宏利混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>37.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.98</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.5735</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>750001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>安信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>45.19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>70.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.4642</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.4095</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>16.56</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.3364</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.3150</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.56</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.2774</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.2582</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>39.36</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.2556</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>28.63</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.1967</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>13.70</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.1727</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>090003</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大成蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>17.92</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.1702</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006252</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>永赢消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>22.48</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.0678</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002021</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏回报二号混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>51.73</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>47.84</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.0449</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>13.43</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>73.12</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.0005</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005711</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>永赢惠添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.9792</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>10.98</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.9564</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007944</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>永赢乾元三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.57</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.9016</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11.51</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.8966</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>27.82</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.8847</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010400</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国融泰三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>34.05</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.8581</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.8564</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>36.49</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.7845</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.7765</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>35.90</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>78.79</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.7288</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>460005</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.6733</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>万家精选混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.6234</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.5469</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.5277</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001825</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.4943</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011203</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.4911</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011856</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.4642</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.4631</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>77.42</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.4623</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.4542</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>15.59</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.4537</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>13.71</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>79.35</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.4373</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011498</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富国沪深300基本面精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>11.93</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.4283</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011212</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>83.04</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.4161</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3996</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>74.36</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3861</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011933</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3771</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002780</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.3604</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001287</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.3601</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>160918</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>71.76</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.3525</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008528</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量成长混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3449</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012184</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.3276</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.3245</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006253</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>永赢消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.3126</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>168102</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>九泰锐富事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>80.51</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2954</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011905</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2952</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>68.45</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2933</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012442</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合E</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>22.52</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>22.68</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2883</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009932</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>22.52</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>22.68</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2883</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010790</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2790</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2682</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>003295</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>南方安裕混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>45.06</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>21.20</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2568</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>68.77</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2561</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2480</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2428</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001416</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>嘉实事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>12.38</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>81.47</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2402</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005587</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>安信比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>68.82</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2286</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>519997</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>长信银利精选混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.2285</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>008891</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>安信价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.2168</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009880</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>安信成长动力一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.2148</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>530011</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>建信内生动力混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>80.80</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.2130</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001069</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华泰柏瑞消费成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.2112</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>012407</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>永赢长远价值混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.2106</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.2085</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>000634</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>富国天盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.2081</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.2044</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010609</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.2039</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>001712</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>东方红优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>75.69</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.2027</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1984</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>005671</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>77.46</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1956</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1951</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1951</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1753</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>519193</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>万家消费成长股票</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1721</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>建信优势动力混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1719</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1719</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>68.62</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1711</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>工银瑞信国家战略主题股票</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1614</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>67.45</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1606</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>000763</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>工银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1569</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1514</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>007243</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>57.12</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1514</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>560003</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>益民创新优势混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>77.37</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1511</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>004517</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>南方安康混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>32.79</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>21.37</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1443</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>011836</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>银华智能建造股票</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1420</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>005347</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>诺德量化优选6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.1388</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>000803</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>工银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.1322</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>008274</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>73.98</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.1298</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>79.35</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.1289</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>002036</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>005549</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>富国成长优选三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>012995</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>嘉实策略视野三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>376510</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>560002</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>益民红利成长混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.1070</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>006586</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>南方安裕混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>18.41</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>21.20</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>60.12</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>010415</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>001276</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>建信新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>255010</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>国联安稳健混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>69.07</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>009499</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>67.79</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>160421</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>华安智增精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>005552</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>73.47</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>010791</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>001185</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>30.77</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>009055</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>77.42</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>161910</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>002945</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>大成盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>70.48</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>519949</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>007294</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>67.45</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>007043</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>009056</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>166007</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>001884</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合E</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>005305</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>长信合利混合A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>38.27</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>005544</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>银华瑞和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>59.15</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>008892</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>安信价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>005826</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>华夏潜龙精选股票</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>010188</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>中欧添益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>25.98</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>161722</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>招商丰泰灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>67.15</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>002029</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>30.77</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>67.20</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>004694</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>011213</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>83.04</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>007388</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>003861</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>011499</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>富国沪深300基本面精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>673071</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>27.46</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>000066</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>67.47</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>011906</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>673073</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>27.46</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>013029</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>嘉实鑫泰一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>67.97</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>011204</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>005331</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>益民优势安享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>41.68</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>000410</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>益民服务领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>81.02</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>003862</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>001267</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>泰达宏利蓝筹价值混合</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>011857</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>010444</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>南方誉尚一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>002182</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>东兴蓝海财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>008275</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>73.98</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>002023</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>红塔红土稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>009755</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>001495</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>东方新价值混合A</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>29.56</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>005953</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>人保转型新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>002547</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>民生加银养老服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>52.39</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>67.15</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>006085</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>010189</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>中欧添益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>25.98</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>40.07</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>33.44</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>011800</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>81.46</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>450007</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>国富成长动力混合</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>001392</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>010543</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>中加科鑫混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>31.61</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>013030</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>嘉实鑫泰一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>005553</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>350005</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>天治中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>58.26</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>53.37</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>010445</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>南方誉尚一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>014014</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>40.88</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>005672</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>77.46</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>009200</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>华安金享混合</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>007389</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票C</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>29.56</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>012185</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>006557</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>970050</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>东海海睿锐意3个月定开灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>78.42</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>007244</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>57.12</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>001393</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H225" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>010416</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合C</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H226" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>010037</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H227" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>002908</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>富国睿利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H228" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H229" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>014015</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>40.88</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H230" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>32.71</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H231" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>004748</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H232" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>65.16</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H233" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>73.47</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H235" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>163821</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>中银沪深300等权重指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H236" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>005954</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>人保转型新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H237" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H238" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>33.44</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H239" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>007293</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H240" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>40.07</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H241" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>006556</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H242" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>32.71</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H243" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>011159</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>71.76</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H244" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>002024</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>红塔红土稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H245" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>010544</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>中加科鑫混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>31.61</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H246" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>005306</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>长信合利混合C</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>38.27</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G247" t="n">
+        <v>0</v>
+      </c>
+      <c r="H247" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>65.16</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G248" t="n">
+        <v>0</v>
+      </c>
+      <c r="H248" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>247</v>
+      </c>
+      <c r="D2" t="n">
+        <v>97.20999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>148</v>
+      </c>
+      <c r="D3" t="n">
+        <v>67.84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>39</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>46</v>
+      </c>
+      <c r="D6" t="n">
+        <v>16.76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>50</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>19.45</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600383-金地集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600383-金地集团.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -23466,7 +23467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23477,17 +23478,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -23497,14 +23518,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>247</v>
-      </c>
-      <c r="D2" t="n">
-        <v>97.20999999999999</v>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>178.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.7889</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -23513,14 +23556,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>148</v>
-      </c>
-      <c r="D3" t="n">
-        <v>67.84</v>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>141.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.0478</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -23529,14 +23594,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>67</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23.06</v>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>73.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.7798</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -23545,14 +23632,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>39</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.51</v>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>42.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.6474</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -23561,14 +23670,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>46</v>
-      </c>
-      <c r="D6" t="n">
-        <v>16.76</v>
+          <t>002001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏回报混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>131.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>44.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.6200</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -23577,13 +23708,6521 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011932</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>64.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.2753</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>52.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.7768</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>41.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.3350</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.0548</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.9602</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501208</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>69.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.9138</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.8168</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.7465</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013273</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>14.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.7435</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.5987</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002021</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏回报二号混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>53.91</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>45.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.4933</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.3283</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.1040</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0896</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0230</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005711</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>永赢惠添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.0211</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007944</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>永赢乾元三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.9089</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9033</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>14.14</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8300</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8250</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>15.45</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8204</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.8072</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>75.01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.8064</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>32.75</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.02</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.8056</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.7932</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013500</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>14.36</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.7625</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>万家精选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6381</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6290</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.6012</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>15.48</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5991</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014224</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>81.39</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5967</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003396</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东方红优享红利沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>15.78</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>63.22</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5192</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011817</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>银华阿尔法混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>12.12</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4800</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011203</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4768</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4561</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>74.32</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4494</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4364</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4295</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4140</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4127</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>95.93</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3632</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>240005</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华宝多策略增长</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3617</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010790</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>15.41</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3513</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3332</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3276</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013143</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富国安诚回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>20.24</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>30.29</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3259</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3179</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3169</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2961</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>工银瑞信国家战略主题股票</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2916</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011933</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2823</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011905</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2810</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011726</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2683</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2665</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2496</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>530011</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>建信内生动力混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>77.62</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2487</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001712</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>东方红优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>61.69</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2481</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2433</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>003295</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>南方安裕混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>38.15</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>22.06</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2403</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2384</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>168102</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>九泰锐富事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>77.73</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2301</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2263</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>560003</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>益民创新优势混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>65.89</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2251</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>519193</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>万家消费成长股票</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2157</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>013144</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>富国安诚回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>30.29</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1945</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1923</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011836</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>银华智能建造股票</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1757</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>519997</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长信银利精选混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>80.21</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1743</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1685</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1622</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>建信优势动力混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>84.39</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>015042</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1511</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1468</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010568</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005347</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>诺德量化优选6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005552</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>000803</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>工银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>82.92</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1244</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010791</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>014225</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>81.39</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1171</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1070</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>013726</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>惠升惠诚稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>020018</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>国泰金鹿混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0987</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005400</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010843</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>富国天润回报混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>34.72</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>49.22</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>005445</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华宝价值发现混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>014020</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>诺德量化先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>006586</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>南方安裕混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>22.06</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0868</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>天治财富增长混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>70.51</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001990</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>004737</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001185</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>35.70</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>161910</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>001276</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>建信新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>73.58</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010569</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>000841</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>富国新回报灵活配置混合 - A/B</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>009499</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>005544</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>银华瑞和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>002029</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>35.70</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>014996</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>中欧量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>006547</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>红塔红土盛弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>61.47</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>008736</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>003861</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>011906</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>014995</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>中欧量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>011204</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>014021</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>诺德量化先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>001267</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>泰达宏利蓝筹价值混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>013600</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>九泰锐富事件驱动混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>77.73</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>005553</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>012245</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>001135</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>益民品质升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>70.15</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>006085</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>005401</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>450007</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>国富成长动力混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>002182</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>东兴蓝海财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>014608</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>004234</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>003862</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>015007</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>中欧量化动力混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>015006</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>中欧量化动力混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>001392</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>012244</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>009755</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>519007</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>海富通强化回报混合</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>006548</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>红塔红土盛弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>61.47</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>004734</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>46.06</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>95.36</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>004735</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>46.06</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>010844</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>富国天润回报混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>34.72</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>014609</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>001393</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>007084</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>天治转型升级混合</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>000843</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>富国新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>008737</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>013727</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>惠升惠诚稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>004747</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>001495</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>东方新价值混合A</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>960002</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>华夏回报混合H</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>44.64</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>0</v>
+      </c>
+      <c r="H172" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>0</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>014572</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>长信银利精选混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>80.21</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>173</v>
+      </c>
+      <c r="D2" t="n">
+        <v>75.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>247</v>
+      </c>
+      <c r="D3" t="n">
+        <v>97.20999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>148</v>
+      </c>
+      <c r="D4" t="n">
+        <v>67.84</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>67</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>39</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>46</v>
+      </c>
+      <c r="D7" t="n">
+        <v>16.76</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>50</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>19.45</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600383-金地集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600383-金地集团.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="D2" t="n">
-        <v>75.89</v>
+        <v>80.52</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>247</v>
+        <v>173</v>
       </c>
       <c r="D3" t="n">
-        <v>97.20999999999999</v>
+        <v>75.89</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>148</v>
+        <v>247</v>
       </c>
       <c r="D4" t="n">
-        <v>67.84</v>
+        <v>97.20999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="D5" t="n">
-        <v>23.06</v>
+        <v>67.84</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="D6" t="n">
-        <v>11.51</v>
+        <v>23.06</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D7" t="n">
-        <v>16.76</v>
+        <v>11.51</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>46</v>
+      </c>
+      <c r="D8" t="n">
+        <v>16.76</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>50</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>19.45</v>
       </c>
     </row>
@@ -600,6 +617,7960 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H209"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163402</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全趋势投资混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>210.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.6768</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>95.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7765</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>117.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2406</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>53.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.6592</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011932</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银战略远见混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>49.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5934</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.4224</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银战略转型股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>44.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.1731</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0367</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>40.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.9610</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>50.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.9054</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>35.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.8238</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>66.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.7571</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>960002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏回报混合H</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>122.99</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>48.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.7219</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>19.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.7030</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.6228</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>30.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>69.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.5549</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>33.29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.3782</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013435</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>32.65</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.1036</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161606</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>融通行业景气混合A/B</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0999</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>450002</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国富弹性市值混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>30.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0428</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010963</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信澳周期动力混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>39.77</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9942</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.9878</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9442</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9435</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>16.86</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>74.84</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.9324</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013273</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>13.60</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.9221</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.9010</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005711</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>永赢惠添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.8741</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.8545</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.7853</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007944</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>永赢乾元三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.7779</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.7444</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.7430</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>32.31</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>76.51</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.7205</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002021</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏回报二号混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>50.59</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>51.94</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.7133</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.7121</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.6802</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>13.60</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.6678</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>17.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.6154</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>016954</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.6148</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014224</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>16.94</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.5878</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.5375</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4903</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>161837</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银华大盘精选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4679</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>240005</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华宝多策略增长A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4559</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.4461</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>14.13</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>75.08</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.4437</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.4320</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>万家精选混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.4000</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3738</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3655</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011203</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3587</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>工银国家战略股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3586</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3549</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>74.70</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3528</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.3471</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>70.88</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.3449</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3270</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3128</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3099</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>015455</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>信澳周期动力混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.3070</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>015652</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.3016</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2931</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011726</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2844</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011905</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>安信价值启航混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2812</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2496</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>161610</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>融通领先成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>14.57</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2433</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2400</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010790</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2278</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>66.61</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2278</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010795</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2196</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>69.80</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2133</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>000124</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华宝服务优选混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2065</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011933</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>工银战略远见混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2055</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1984</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1971</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>570005</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>诺德成长优势混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1971</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>012530</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>永赢惠添盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1969</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>013436</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1910</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>560003</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>益民创新优势混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1908</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>66.07</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1902</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1898</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>519193</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>万家消费成长股票</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1843</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1828</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1795</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001345</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>18.88</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1794</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011843</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1764</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001490</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>汇添富国企创新增长股票A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1744</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>161601</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>融通新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>11.70</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>70.32</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1626</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011011</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>融通产业趋势精选2年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1616</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>011836</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>银华智能建造股票</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1507</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>62.81</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>工银战略转型股票C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1381</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>159768</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>银华中证内地地产主题ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>97.47</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1347</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010791</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>530011</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>建信内生动力混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>70.74</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1301</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>009277</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>融通行业景气混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1195</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>168102</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>九泰锐富事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>014225</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>003295</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>南方安裕混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>22.18</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>20.64</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>005445</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华宝价值发现混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010568</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>14.45</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>020018</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>国泰金鹿混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>159707</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华宝中证800地产ETF</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>65.31</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>013726</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>惠升惠诚稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>012036</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>诺德兴远优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>68.83</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>67.57</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>015566</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>万家精选混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>011429</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>前海开源民裕进取混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>60.79</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>005250</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>银华估值优势混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>005400</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>011906</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>安信价值启航混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>005552</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>015674</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>015042</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>016257</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>75.08</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>006586</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>南方安裕混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>12.04</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>20.64</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>011994</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>国联安核心优势混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>011204</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>001267</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>泰达宏利蓝筹价值混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>005544</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>银华瑞和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>015572</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>70.88</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>008555</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>华商龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>006430</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>凯石澜龙头经济一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>68.31</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>010569</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>519627</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>银河君润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>20.98</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>161910</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>65.31</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>56.51</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>012245</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>68.03</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>001347</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>010403</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>华商景气优选混合</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>76.85</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>011588</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>前海开源成份精选混合</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>60.90</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>006085</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>工银产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>012244</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>010796</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>016600</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>69.02</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>005401</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>014608</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>工银产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>002955</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>融通新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>001185</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>32.82</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>450007</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>国富成长动力混合</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>002029</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>32.82</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>015614</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>华宝价值发现混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>001392</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>013025</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>62.81</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>002182</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>东兴蓝海财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>005553</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>010646</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>007084</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>天治转型升级混合</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>56.51</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>011844</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>001393</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>015041</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>015613</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>华宝多策略增长C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>004250</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>银河量化优选混合</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>012495</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>民生加银双核动力混合</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>53.77</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>015123</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>汇添富国企创新增长股票C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>015573</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>002605</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>融通新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>26.73</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>014609</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>010923</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>永赢鑫欣混合</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>30.04</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>43.92</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>001470</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>融通通鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>30.55</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>013600</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>九泰锐富事件驱动混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>013727</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>惠升惠诚稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>43.92</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>005053</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>银河量化价值混合A</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>016282</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>建信内生动力混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>70.74</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>673120</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>009241</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>融通领先成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>005618</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>66.07</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>519628</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>银河君润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>20.98</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>010647</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>015124</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>汇添富国企创新增长股票D</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>005619</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>013026</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>银河量化价值混合C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G207" t="n">
+        <v>0</v>
+      </c>
+      <c r="H207" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>002001</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>华夏回报混合A</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>48.33</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G208" t="n">
+        <v>0</v>
+      </c>
+      <c r="H208" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合A</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G209" t="n">
+        <v>0</v>
+      </c>
+      <c r="H209" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7221,7 +15192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16659,7 +24630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -22335,7 +30306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24935,7 +32906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -26473,7 +34444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -28277,7 +36248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
